--- a/0273NYP - New York Premier/0273AGH - Allegheny Health/Purchase_Order_Unsigned_0273AGH_2018-05-16.xlsx
+++ b/0273NYP - New York Premier/0273AGH - Allegheny Health/Purchase_Order_Unsigned_0273AGH_2018-05-16.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>CCLF/Non-CCLF:</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>HCC Risk Scores</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>HCG Benchmarks</t>
@@ -598,7 +595,7 @@
   <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -624,43 +621,43 @@
   <sheetData>
     <row r="1" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="B1" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" s="17"/>
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>29</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>30</v>
       </c>
       <c r="F6" s="17"/>
       <c r="H6" s="17"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2">
         <v>43221</v>
@@ -670,7 +667,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1">
         <v>3</v>
@@ -680,10 +677,10 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" s="1"/>
       <c r="H10" s="1"/>
@@ -703,20 +700,20 @@
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F12" s="1"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="1" t="s">
@@ -738,11 +735,11 @@
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="1"/>
@@ -782,7 +779,7 @@
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="1" t="s">
@@ -804,7 +801,7 @@
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="1" t="s">
@@ -825,7 +822,7 @@
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="1" t="s">
@@ -846,7 +843,7 @@
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="1" t="s">
@@ -867,7 +864,7 @@
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="1" t="s">
@@ -888,7 +885,7 @@
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="1" t="s">
@@ -909,7 +906,7 @@
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="1" t="s">
@@ -930,7 +927,7 @@
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="1" t="s">
@@ -950,17 +947,17 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="1"/>
@@ -977,7 +974,7 @@
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="1" t="s">
@@ -998,7 +995,7 @@
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="1" t="s">
@@ -1018,13 +1015,13 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B29" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="1" t="s">
@@ -1045,7 +1042,7 @@
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="18">
@@ -1066,7 +1063,7 @@
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="18">
@@ -1087,7 +1084,7 @@
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="18">
@@ -1108,11 +1105,11 @@
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
       <c r="B34" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="10"/>
